--- a/PlantillaAgil_FGO.xlsx
+++ b/PlantillaAgil_FGO.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chang\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chang\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBE39F9-0AF2-4B03-9309-06FF99AED887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21AEC820-6AE0-487F-9ED9-3A509ACF871F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{E2235641-5E65-4C25-A4EE-AD76D0F80E5F}"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{E2235641-5E65-4C25-A4EE-AD76D0F80E5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Desglose de Tareas" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="117">
   <si>
     <t>Sistema de venta de productos.</t>
   </si>
@@ -405,6 +405,15 @@
   <si>
     <t>2.7</t>
   </si>
+  <si>
+    <t xml:space="preserve">Interfaz de tienda </t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>creacion de interfaz para verificar la comprension sobre el uso de BD y software</t>
+  </si>
 </sst>
 </file>
 
@@ -511,7 +520,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,12 +581,6 @@
         <bgColor rgb="FF333F4F"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB6D7A8"/>
-        <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -633,7 +636,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -801,8 +804,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -813,6 +814,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1175,8 +1179,8 @@
   </sheetPr>
   <dimension ref="A1:Z1006"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F51" sqref="A2:F51"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1188,14 +1192,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
       <c r="G1" s="58"/>
       <c r="H1" s="58"/>
       <c r="I1" s="58"/>
@@ -2779,11 +2783,11 @@
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="58"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="58"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
       <c r="G52" s="58"/>
       <c r="H52" s="58"/>
       <c r="I52" s="58"/>
@@ -2807,11 +2811,11 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
       <c r="G53" s="58"/>
       <c r="H53" s="58"/>
       <c r="I53" s="58"/>
@@ -2835,11 +2839,11 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
       <c r="G54" s="58"/>
       <c r="H54" s="58"/>
       <c r="I54" s="58"/>
@@ -2863,11 +2867,11 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
       <c r="G55" s="58"/>
       <c r="H55" s="58"/>
       <c r="I55" s="58"/>
@@ -2891,11 +2895,11 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56"/>
+      <c r="F56"/>
       <c r="G56" s="58"/>
       <c r="H56" s="58"/>
       <c r="I56" s="58"/>
@@ -2919,11 +2923,11 @@
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="59"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57"/>
+      <c r="F57"/>
       <c r="G57" s="58"/>
       <c r="H57" s="58"/>
       <c r="J57" s="58"/>
@@ -2946,11 +2950,11 @@
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="58"/>
-      <c r="B58" s="58"/>
-      <c r="C58" s="59"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58"/>
+      <c r="F58"/>
       <c r="G58" s="58"/>
       <c r="H58" s="58"/>
       <c r="J58" s="58"/>
@@ -2973,11 +2977,11 @@
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="59"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59"/>
+      <c r="F59"/>
       <c r="G59" s="58"/>
       <c r="H59" s="58"/>
       <c r="J59" s="58"/>
@@ -3000,11 +3004,11 @@
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="58"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
       <c r="G60" s="58"/>
       <c r="H60" s="58"/>
       <c r="I60" s="58"/>
@@ -3028,11 +3032,11 @@
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
       <c r="G61" s="58"/>
       <c r="H61" s="58"/>
       <c r="I61" s="58"/>
@@ -3056,11 +3060,11 @@
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="58"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62"/>
+      <c r="F62"/>
       <c r="G62" s="58"/>
       <c r="H62" s="58"/>
       <c r="I62" s="58"/>
@@ -3084,11 +3088,11 @@
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="58"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63"/>
+      <c r="F63"/>
       <c r="G63" s="58"/>
       <c r="H63" s="58"/>
       <c r="I63" s="58"/>
@@ -3112,11 +3116,11 @@
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="58"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64"/>
+      <c r="F64"/>
       <c r="G64" s="58"/>
       <c r="H64" s="58"/>
       <c r="I64" s="58"/>
@@ -3140,11 +3144,11 @@
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="58"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65"/>
+      <c r="F65"/>
       <c r="G65" s="58"/>
       <c r="H65" s="58"/>
       <c r="I65" s="58"/>
@@ -3168,11 +3172,11 @@
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="58"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
       <c r="G66" s="58"/>
       <c r="H66" s="58"/>
       <c r="I66" s="58"/>
@@ -3196,11 +3200,11 @@
     </row>
     <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="58"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
       <c r="H67" s="58"/>
       <c r="I67" s="58"/>
       <c r="J67" s="58"/>
@@ -3223,11 +3227,11 @@
     </row>
     <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
       <c r="H68" s="58"/>
       <c r="I68" s="58"/>
       <c r="J68" s="58"/>
@@ -3250,11 +3254,11 @@
     </row>
     <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="58"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58"/>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
       <c r="H69" s="58"/>
       <c r="I69" s="58"/>
       <c r="J69" s="58"/>
@@ -29526,11 +29530,11 @@
     <tabColor rgb="FFADB9CA"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AG1020"/>
+  <dimension ref="A1:AG1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29589,10 +29593,10 @@
     </row>
     <row r="2" spans="1:33" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="64"/>
+      <c r="C2" s="62"/>
       <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
@@ -29610,7 +29614,9 @@
       <c r="J2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>114</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="11"/>
       <c r="N2" s="5"/>
@@ -29636,10 +29642,10 @@
     </row>
     <row r="3" spans="1:33" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="64"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="12" t="s">
         <v>45</v>
       </c>
@@ -29653,7 +29659,9 @@
       <c r="J3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="L3" s="1"/>
       <c r="M3" s="11"/>
       <c r="N3" s="5"/>
@@ -29777,19 +29785,19 @@
       <c r="C6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>45</v>
+      <c r="D6" s="19"/>
+      <c r="E6" s="64" t="s">
+        <v>115</v>
       </c>
-      <c r="E6" s="19"/>
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="19">
         <f t="shared" ref="H6:H15" si="0">G6-F6</f>
         <v>0</v>
       </c>
-      <c r="I6" s="21" t="e">
-        <f>SUM(I7,I13,I15,I20,#REF!)/5</f>
-        <v>#REF!</v>
+      <c r="I6" s="21">
+        <f>AVERAGE(I7,I13,I16,I20,I23,I35,I41,I29,I47)</f>
+        <v>1</v>
       </c>
       <c r="J6" s="19" t="s">
         <v>30</v>
@@ -29831,7 +29839,10 @@
       <c r="D7" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="25">
+        <f>SUM(E8:E12)</f>
+        <v>24</v>
+      </c>
       <c r="F7" s="26"/>
       <c r="G7" s="26"/>
       <c r="H7" s="25">
@@ -29840,7 +29851,7 @@
       </c>
       <c r="I7" s="27">
         <f>SUM(I8:I12)/COUNT(I8:I12)</f>
-        <v>0.94000000000000006</v>
+        <v>1</v>
       </c>
       <c r="J7" s="25" t="s">
         <v>30</v>
@@ -29882,7 +29893,9 @@
       <c r="D8" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="28"/>
+      <c r="E8" s="28">
+        <v>3</v>
+      </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="28">
@@ -29932,7 +29945,9 @@
       <c r="D9" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="28"/>
+      <c r="E9" s="28">
+        <v>8</v>
+      </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="28">
@@ -29982,7 +29997,9 @@
       <c r="D10" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="28"/>
+      <c r="E10" s="28">
+        <v>8</v>
+      </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="28">
@@ -30032,7 +30049,9 @@
       <c r="D11" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="28"/>
+      <c r="E11" s="28">
+        <v>3</v>
+      </c>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="28">
@@ -30040,10 +30059,10 @@
         <v>0</v>
       </c>
       <c r="I11" s="30">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J11" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K11" s="28"/>
       <c r="L11" s="5"/>
@@ -30080,7 +30099,9 @@
       <c r="D12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="28"/>
+      <c r="E12" s="28">
+        <v>2</v>
+      </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="28">
@@ -30125,7 +30146,7 @@
       <c r="C13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E13" s="23"/>
@@ -30137,7 +30158,7 @@
       </c>
       <c r="I13" s="27">
         <f>SUM(I14:I14)/COUNT(I14:I14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="23" t="s">
         <v>30</v>
@@ -30176,7 +30197,9 @@
       <c r="D14" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="33"/>
+      <c r="E14" s="33">
+        <v>5</v>
+      </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
       <c r="H14" s="28">
@@ -30184,10 +30207,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="31" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K14" s="33"/>
       <c r="L14" s="5"/>
@@ -30230,9 +30253,9 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="37" t="e">
-        <f>I6=SUM(I17:I52)/COUNT(I17:I52)</f>
-        <v>#REF!</v>
+      <c r="I15" s="37">
+        <f>AVERAGE(I16:I52)</f>
+        <v>1</v>
       </c>
       <c r="J15" s="23" t="s">
         <v>30</v>
@@ -30269,7 +30292,7 @@
       <c r="C16" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E16" s="23"/>
@@ -30321,7 +30344,9 @@
       <c r="D17" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="33"/>
+      <c r="E17" s="33">
+        <v>2</v>
+      </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
       <c r="H17" s="33"/>
@@ -30366,7 +30391,9 @@
       <c r="D18" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="33"/>
+      <c r="E18" s="33">
+        <v>3</v>
+      </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
       <c r="H18" s="33"/>
@@ -30408,10 +30435,12 @@
       <c r="C19" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="33">
+        <v>4</v>
+      </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
       <c r="H19" s="33"/>
@@ -30453,7 +30482,7 @@
       <c r="C20" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="23"/>
@@ -30505,7 +30534,9 @@
       <c r="D21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="33"/>
+      <c r="E21" s="33">
+        <v>3</v>
+      </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
       <c r="H21" s="33">
@@ -30550,10 +30581,12 @@
       <c r="C22" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="33">
+        <v>2</v>
+      </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
       <c r="H22" s="33">
@@ -30598,7 +30631,7 @@
       <c r="C23" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="40"/>
@@ -30610,7 +30643,7 @@
       </c>
       <c r="I23" s="43">
         <f>SUM(I24:I28)/COUNT(I24:I28)</f>
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="J23" s="41" t="s">
         <v>30</v>
@@ -30647,10 +30680,12 @@
       <c r="C24" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="33"/>
+      <c r="E24" s="33">
+        <v>2</v>
+      </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
       <c r="H24" s="33">
@@ -30695,10 +30730,12 @@
       <c r="C25" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="33"/>
+      <c r="E25" s="33">
+        <v>3</v>
+      </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
       <c r="H25" s="33">
@@ -30743,10 +30780,12 @@
       <c r="C26" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="33"/>
+      <c r="E26" s="33">
+        <v>6</v>
+      </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
       <c r="H26" s="33">
@@ -30791,10 +30830,12 @@
       <c r="C27" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="33"/>
+      <c r="E27" s="33">
+        <v>5</v>
+      </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
       <c r="H27" s="33">
@@ -30802,10 +30843,10 @@
         <v>0</v>
       </c>
       <c r="I27" s="38">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="33"/>
       <c r="L27" s="5"/>
@@ -30839,10 +30880,12 @@
       <c r="C28" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="33"/>
+      <c r="E28" s="33">
+        <v>2</v>
+      </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
       <c r="H28" s="33">
@@ -30850,10 +30893,10 @@
         <v>0</v>
       </c>
       <c r="I28" s="38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K28" s="33"/>
       <c r="L28" s="5"/>
@@ -30887,7 +30930,7 @@
       <c r="C29" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E29" s="40"/>
@@ -30899,7 +30942,7 @@
       </c>
       <c r="I29" s="43">
         <f>SUM(I30:I34)/COUNT(I30:I34)</f>
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="J29" s="41" t="s">
         <v>30</v>
@@ -30936,10 +30979,12 @@
       <c r="C30" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="47"/>
+      <c r="E30" s="47">
+        <v>2</v>
+      </c>
       <c r="F30" s="47"/>
       <c r="G30" s="47"/>
       <c r="H30" s="47"/>
@@ -30981,10 +31026,12 @@
       <c r="C31" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D31" s="47" t="s">
+      <c r="D31" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="47"/>
+      <c r="E31" s="47">
+        <v>5</v>
+      </c>
       <c r="F31" s="47"/>
       <c r="G31" s="47"/>
       <c r="H31" s="47"/>
@@ -31026,10 +31073,12 @@
       <c r="C32" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="47"/>
+      <c r="E32" s="47">
+        <v>6</v>
+      </c>
       <c r="F32" s="47"/>
       <c r="G32" s="47"/>
       <c r="H32" s="47"/>
@@ -31071,18 +31120,20 @@
       <c r="C33" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="47"/>
+      <c r="E33" s="47">
+        <v>3</v>
+      </c>
       <c r="F33" s="47"/>
       <c r="G33" s="47"/>
       <c r="H33" s="47"/>
       <c r="I33" s="48">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J33" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K33" s="33"/>
       <c r="L33" s="5"/>
@@ -31116,18 +31167,20 @@
       <c r="C34" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E34" s="47"/>
+      <c r="E34" s="47">
+        <v>2</v>
+      </c>
       <c r="F34" s="47"/>
       <c r="G34" s="47"/>
       <c r="H34" s="47"/>
       <c r="I34" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K34" s="33"/>
       <c r="L34" s="5"/>
@@ -31161,7 +31214,7 @@
       <c r="C35" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E35" s="40"/>
@@ -31175,7 +31228,7 @@
         <f>SUM(I36:I40)/COUNT(I36:I40)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="41" t="s">
+      <c r="J35" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K35" s="40"/>
@@ -31210,10 +31263,12 @@
       <c r="C36" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="47" t="s">
+      <c r="D36" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="47"/>
+      <c r="E36" s="47">
+        <v>3</v>
+      </c>
       <c r="F36" s="47"/>
       <c r="G36" s="47"/>
       <c r="H36" s="47"/>
@@ -31255,10 +31310,12 @@
       <c r="C37" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="47" t="s">
+      <c r="D37" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="47"/>
+      <c r="E37" s="47">
+        <v>5</v>
+      </c>
       <c r="F37" s="47"/>
       <c r="G37" s="47"/>
       <c r="H37" s="47"/>
@@ -31300,10 +31357,12 @@
       <c r="C38" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="47"/>
+      <c r="E38" s="47">
+        <v>2</v>
+      </c>
       <c r="F38" s="47"/>
       <c r="G38" s="47"/>
       <c r="H38" s="47"/>
@@ -31345,10 +31404,12 @@
       <c r="C39" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="47" t="s">
+      <c r="D39" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="47"/>
+      <c r="E39" s="47">
+        <v>3</v>
+      </c>
       <c r="F39" s="47"/>
       <c r="G39" s="47"/>
       <c r="H39" s="47"/>
@@ -31390,10 +31451,12 @@
       <c r="C40" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="47"/>
+      <c r="E40" s="47">
+        <v>3</v>
+      </c>
       <c r="F40" s="47"/>
       <c r="G40" s="47"/>
       <c r="H40" s="47"/>
@@ -31435,7 +31498,7 @@
       <c r="C41" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D41" s="41" t="s">
+      <c r="D41" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E41" s="40"/>
@@ -31449,7 +31512,7 @@
         <f>SUM(I42:I46)/COUNT(I42:I46)</f>
         <v>1</v>
       </c>
-      <c r="J41" s="41" t="s">
+      <c r="J41" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K41" s="40"/>
@@ -31484,10 +31547,12 @@
       <c r="C42" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="47" t="s">
+      <c r="D42" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="47"/>
+      <c r="E42" s="47">
+        <v>5</v>
+      </c>
       <c r="F42" s="47"/>
       <c r="G42" s="47"/>
       <c r="H42" s="47"/>
@@ -31529,10 +31594,12 @@
       <c r="C43" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D43" s="47" t="s">
+      <c r="D43" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="47"/>
+      <c r="E43" s="47">
+        <v>5</v>
+      </c>
       <c r="F43" s="47"/>
       <c r="G43" s="47"/>
       <c r="H43" s="47"/>
@@ -31574,10 +31641,12 @@
       <c r="C44" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D44" s="47" t="s">
+      <c r="D44" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E44" s="47"/>
+      <c r="E44" s="47">
+        <v>5</v>
+      </c>
       <c r="F44" s="47"/>
       <c r="G44" s="47"/>
       <c r="H44" s="47"/>
@@ -31619,10 +31688,12 @@
       <c r="C45" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="D45" s="47" t="s">
+      <c r="D45" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="47"/>
+      <c r="E45" s="47">
+        <v>5</v>
+      </c>
       <c r="F45" s="47"/>
       <c r="G45" s="47"/>
       <c r="H45" s="47"/>
@@ -31664,10 +31735,12 @@
       <c r="C46" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E46" s="47"/>
+      <c r="E46" s="47">
+        <v>5</v>
+      </c>
       <c r="F46" s="47"/>
       <c r="G46" s="47"/>
       <c r="H46" s="47"/>
@@ -31709,7 +31782,7 @@
       <c r="C47" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D47" s="41" t="s">
+      <c r="D47" s="25" t="s">
         <v>45</v>
       </c>
       <c r="E47" s="40"/>
@@ -31721,9 +31794,9 @@
       </c>
       <c r="I47" s="43">
         <f>SUM(I48:I52)/COUNT(I48:I52)</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
-      <c r="J47" s="41" t="s">
+      <c r="J47" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K47" s="40"/>
@@ -31758,10 +31831,12 @@
       <c r="C48" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E48" s="47"/>
+      <c r="E48" s="47">
+        <v>5</v>
+      </c>
       <c r="F48" s="47"/>
       <c r="G48" s="47"/>
       <c r="H48" s="47"/>
@@ -31803,10 +31878,12 @@
       <c r="C49" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="47" t="s">
+      <c r="D49" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="47"/>
+      <c r="E49" s="47">
+        <v>3</v>
+      </c>
       <c r="F49" s="47"/>
       <c r="G49" s="47"/>
       <c r="H49" s="47"/>
@@ -31848,18 +31925,20 @@
       <c r="C50" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E50" s="47"/>
+      <c r="E50" s="47">
+        <v>3</v>
+      </c>
       <c r="F50" s="47"/>
       <c r="G50" s="47"/>
       <c r="H50" s="47"/>
       <c r="I50" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J50" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K50" s="33"/>
       <c r="L50" s="5"/>
@@ -31893,18 +31972,20 @@
       <c r="C51" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D51" s="47" t="s">
+      <c r="D51" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="47"/>
+      <c r="E51" s="47">
+        <v>3</v>
+      </c>
       <c r="F51" s="47"/>
       <c r="G51" s="47"/>
       <c r="H51" s="47"/>
       <c r="I51" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J51" s="22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K51" s="33"/>
       <c r="L51" s="5"/>
@@ -31938,18 +32019,20 @@
       <c r="C52" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="47" t="s">
+      <c r="D52" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="47"/>
+      <c r="E52" s="47">
+        <v>3</v>
+      </c>
       <c r="F52" s="47"/>
       <c r="G52" s="47"/>
       <c r="H52" s="47"/>
       <c r="I52" s="48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" s="22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K52" s="33"/>
       <c r="L52" s="5"/>
@@ -31977,20 +32060,24 @@
     </row>
     <row r="53" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="47"/>
-      <c r="I53" s="48">
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23">
+        <f t="shared" ref="H53:H77" si="3">G53-F53</f>
+        <v>0</v>
+      </c>
+      <c r="I53" s="37">
+        <f>SUM(I54)/COUNT(I54)</f>
         <v>1</v>
       </c>
-      <c r="J53" s="22" t="s">
+      <c r="J53" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K53" s="33"/>
+      <c r="K53" s="23"/>
       <c r="L53" s="5"/>
       <c r="M53" s="35"/>
       <c r="N53" s="5"/>
@@ -32016,14 +32103,17 @@
     </row>
     <row r="54" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="46"/>
+      <c r="B54" s="10"/>
       <c r="C54" s="22"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="47"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="47"/>
-      <c r="I54" s="48">
+      <c r="D54" s="22"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="38">
         <v>1</v>
       </c>
       <c r="J54" s="22" t="s">
@@ -32053,22 +32143,25 @@
       <c r="AF54" s="5"/>
       <c r="AG54" s="5"/>
     </row>
-    <row r="55" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="46"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="47"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="47"/>
-      <c r="I55" s="48">
+      <c r="B55" s="39"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="21">
         <v>1</v>
       </c>
-      <c r="J55" s="22" t="s">
+      <c r="J55" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K55" s="33"/>
+      <c r="K55" s="18"/>
       <c r="L55" s="5"/>
       <c r="M55" s="35"/>
       <c r="N55" s="5"/>
@@ -32094,17 +32187,21 @@
     </row>
     <row r="56" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="47"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="47"/>
-      <c r="I56" s="48">
+      <c r="B56" s="49"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="37">
+        <f>SUM(I57:I66)/COUNT(I57:I66)</f>
         <v>1</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="41" t="s">
         <v>30</v>
       </c>
       <c r="K56" s="33"/>
@@ -32133,14 +32230,17 @@
     </row>
     <row r="57" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="46"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="22"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="47"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="47"/>
-      <c r="I57" s="48">
+      <c r="D57" s="22"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="38">
         <v>1</v>
       </c>
       <c r="J57" s="22" t="s">
@@ -32172,14 +32272,17 @@
     </row>
     <row r="58" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="46"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="22"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="47"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="47"/>
-      <c r="I58" s="48">
+      <c r="D58" s="22"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="38">
         <v>1</v>
       </c>
       <c r="J58" s="22" t="s">
@@ -32209,55 +32312,61 @@
       <c r="AF58" s="5"/>
       <c r="AG58" s="5"/>
     </row>
-    <row r="59" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
-      <c r="B59" s="46"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="22"/>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="48">
+      <c r="D59" s="22"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="38">
         <v>1</v>
       </c>
       <c r="J59" s="22" t="s">
         <v>30</v>
       </c>
       <c r="K59" s="33"/>
-      <c r="L59" s="5"/>
+      <c r="L59" s="1"/>
       <c r="M59" s="35"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
-      <c r="Y59" s="5"/>
-      <c r="Z59" s="5"/>
-      <c r="AA59" s="5"/>
-      <c r="AB59" s="5"/>
-      <c r="AC59" s="5"/>
-      <c r="AD59" s="5"/>
-      <c r="AE59" s="5"/>
-      <c r="AF59" s="5"/>
-      <c r="AG59" s="5"/>
-    </row>
-    <row r="60" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
+      <c r="Y59" s="1"/>
+      <c r="Z59" s="1"/>
+      <c r="AA59" s="1"/>
+      <c r="AB59" s="1"/>
+      <c r="AC59" s="1"/>
+      <c r="AD59" s="1"/>
+      <c r="AE59" s="1"/>
+      <c r="AF59" s="1"/>
+      <c r="AG59" s="1"/>
+    </row>
+    <row r="60" spans="1:33" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="46"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="22"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="47"/>
-      <c r="F60" s="47"/>
-      <c r="G60" s="47"/>
-      <c r="H60" s="47"/>
-      <c r="I60" s="48">
+      <c r="D60" s="22"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="38">
         <v>1</v>
       </c>
       <c r="J60" s="22" t="s">
@@ -32289,14 +32398,17 @@
     </row>
     <row r="61" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
-      <c r="B61" s="46"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="22"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="47"/>
-      <c r="F61" s="47"/>
-      <c r="G61" s="47"/>
-      <c r="H61" s="47"/>
-      <c r="I61" s="48">
+      <c r="D61" s="22"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="38">
         <v>1</v>
       </c>
       <c r="J61" s="22" t="s">
@@ -32328,14 +32440,17 @@
     </row>
     <row r="62" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="46"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="22"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="47"/>
-      <c r="F62" s="47"/>
-      <c r="G62" s="47"/>
-      <c r="H62" s="47"/>
-      <c r="I62" s="48">
+      <c r="D62" s="22"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="38">
         <v>1</v>
       </c>
       <c r="J62" s="22" t="s">
@@ -32367,14 +32482,17 @@
     </row>
     <row r="63" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
-      <c r="B63" s="46"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="22"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="48">
+      <c r="D63" s="22"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="38">
         <v>1</v>
       </c>
       <c r="J63" s="22" t="s">
@@ -32406,14 +32524,17 @@
     </row>
     <row r="64" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="46"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="22"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="47"/>
-      <c r="F64" s="47"/>
-      <c r="G64" s="47"/>
-      <c r="H64" s="47"/>
-      <c r="I64" s="48">
+      <c r="D64" s="22"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="38">
         <v>1</v>
       </c>
       <c r="J64" s="22" t="s">
@@ -32445,14 +32566,17 @@
     </row>
     <row r="65" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
-      <c r="B65" s="46"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="22"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="47"/>
-      <c r="H65" s="47"/>
-      <c r="I65" s="48">
+      <c r="D65" s="22"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="38">
         <v>1</v>
       </c>
       <c r="J65" s="22" t="s">
@@ -32484,18 +32608,21 @@
     </row>
     <row r="66" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
-      <c r="B66" s="46"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="22"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="48">
+      <c r="D66" s="22"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="38">
         <v>1</v>
       </c>
       <c r="J66" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K66" s="33"/>
       <c r="L66" s="5"/>
@@ -32523,18 +32650,22 @@
     </row>
     <row r="67" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
-      <c r="B67" s="46"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="47"/>
-      <c r="H67" s="47"/>
-      <c r="I67" s="48">
+      <c r="B67" s="51"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="49"/>
+      <c r="F67" s="50"/>
+      <c r="G67" s="50"/>
+      <c r="H67" s="49">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="37">
+        <f>SUM(I68:I75)/COUNT(I68:I75)</f>
         <v>1</v>
       </c>
-      <c r="J67" s="22" t="s">
-        <v>30</v>
+      <c r="J67" s="41" t="s">
+        <v>31</v>
       </c>
       <c r="K67" s="33"/>
       <c r="L67" s="5"/>
@@ -32562,24 +32693,23 @@
     </row>
     <row r="68" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23">
-        <f t="shared" ref="H68:H92" si="3">G68-F68</f>
+      <c r="B68" s="44"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="34"/>
+      <c r="G68" s="34"/>
+      <c r="H68" s="33">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I68" s="37">
-        <f>SUM(I69)/COUNT(I69)</f>
+      <c r="I68" s="38">
         <v>1</v>
       </c>
-      <c r="J68" s="23" t="s">
-        <v>30</v>
+      <c r="J68" s="22" t="s">
+        <v>31</v>
       </c>
-      <c r="K68" s="23"/>
+      <c r="K68" s="33"/>
       <c r="L68" s="5"/>
       <c r="M68" s="35"/>
       <c r="N68" s="5"/>
@@ -32605,7 +32735,7 @@
     </row>
     <row r="69" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
-      <c r="B69" s="10"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="22"/>
       <c r="D69" s="22"/>
       <c r="E69" s="33"/>
@@ -32619,7 +32749,7 @@
         <v>1</v>
       </c>
       <c r="J69" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K69" s="33"/>
       <c r="L69" s="5"/>
@@ -32645,25 +32775,25 @@
       <c r="AF69" s="5"/>
       <c r="AG69" s="5"/>
     </row>
-    <row r="70" spans="1:33" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
-      <c r="B70" s="39"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18">
+      <c r="B70" s="44"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="34"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I70" s="21">
+      <c r="I70" s="38">
         <v>1</v>
       </c>
-      <c r="J70" s="18" t="s">
-        <v>30</v>
+      <c r="J70" s="22" t="s">
+        <v>31</v>
       </c>
-      <c r="K70" s="18"/>
+      <c r="K70" s="33"/>
       <c r="L70" s="5"/>
       <c r="M70" s="35"/>
       <c r="N70" s="5"/>
@@ -32689,22 +32819,21 @@
     </row>
     <row r="71" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
-      <c r="B71" s="49"/>
-      <c r="C71" s="24"/>
-      <c r="D71" s="24"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="50"/>
-      <c r="G71" s="50"/>
-      <c r="H71" s="49">
+      <c r="B71" s="44"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="33">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I71" s="37">
-        <f>SUM(I72:I81)/COUNT(I72:I81)</f>
+      <c r="I71" s="38">
         <v>1</v>
       </c>
-      <c r="J71" s="41" t="s">
-        <v>30</v>
+      <c r="J71" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="K71" s="33"/>
       <c r="L71" s="5"/>
@@ -32746,7 +32875,7 @@
         <v>1</v>
       </c>
       <c r="J72" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K72" s="33"/>
       <c r="L72" s="5"/>
@@ -32788,7 +32917,7 @@
         <v>1</v>
       </c>
       <c r="J73" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K73" s="33"/>
       <c r="L73" s="5"/>
@@ -32814,7 +32943,7 @@
       <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
     </row>
-    <row r="74" spans="1:33" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="44"/>
       <c r="C74" s="22"/>
@@ -32830,33 +32959,33 @@
         <v>1</v>
       </c>
       <c r="J74" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K74" s="33"/>
-      <c r="L74" s="1"/>
+      <c r="L74" s="5"/>
       <c r="M74" s="35"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1"/>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="1"/>
-      <c r="AF74" s="1"/>
-      <c r="AG74" s="1"/>
-    </row>
-    <row r="75" spans="1:33" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="5"/>
+      <c r="AG74" s="5"/>
+    </row>
+    <row r="75" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="44"/>
       <c r="C75" s="22"/>
@@ -32900,20 +33029,21 @@
     </row>
     <row r="76" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="34"/>
-      <c r="G76" s="34"/>
-      <c r="H76" s="33">
+      <c r="B76" s="51"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="50"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="49">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I76" s="38">
+      <c r="I76" s="37">
+        <f>SUM(I77:I84)/COUNT(I77:I84)</f>
         <v>1</v>
       </c>
-      <c r="J76" s="22" t="s">
+      <c r="J76" s="41" t="s">
         <v>30</v>
       </c>
       <c r="K76" s="33"/>
@@ -32958,7 +33088,7 @@
       <c r="J77" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K77" s="33"/>
+      <c r="K77" s="5"/>
       <c r="L77" s="5"/>
       <c r="M77" s="35"/>
       <c r="N77" s="5"/>
@@ -32990,17 +33120,14 @@
       <c r="E78" s="33"/>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
-      <c r="H78" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="H78" s="33"/>
       <c r="I78" s="38">
         <v>1</v>
       </c>
       <c r="J78" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K78" s="33"/>
+      <c r="K78" s="5"/>
       <c r="L78" s="5"/>
       <c r="M78" s="35"/>
       <c r="N78" s="5"/>
@@ -33033,7 +33160,7 @@
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
       <c r="H79" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H79:H110" si="4">G79-F79</f>
         <v>0</v>
       </c>
       <c r="I79" s="38">
@@ -33042,7 +33169,7 @@
       <c r="J79" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K79" s="33"/>
+      <c r="K79" s="5"/>
       <c r="L79" s="5"/>
       <c r="M79" s="35"/>
       <c r="N79" s="5"/>
@@ -33075,7 +33202,7 @@
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
       <c r="H80" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I80" s="38">
@@ -33084,7 +33211,7 @@
       <c r="J80" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K80" s="33"/>
+      <c r="K80" s="5"/>
       <c r="L80" s="5"/>
       <c r="M80" s="35"/>
       <c r="N80" s="5"/>
@@ -33117,16 +33244,16 @@
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
       <c r="H81" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I81" s="38">
         <v>1</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="K81" s="33"/>
+      <c r="K81" s="5"/>
       <c r="L81" s="5"/>
       <c r="M81" s="35"/>
       <c r="N81" s="5"/>
@@ -33152,24 +33279,23 @@
     </row>
     <row r="82" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="24"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="50"/>
-      <c r="H82" s="49">
-        <f t="shared" si="3"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="33"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="33">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I82" s="37">
-        <f>SUM(I83:I90)/COUNT(I83:I90)</f>
+      <c r="I82" s="38">
         <v>1</v>
       </c>
-      <c r="J82" s="41" t="s">
-        <v>31</v>
+      <c r="J82" s="22" t="s">
+        <v>30</v>
       </c>
-      <c r="K82" s="33"/>
+      <c r="K82" s="5"/>
       <c r="L82" s="5"/>
       <c r="M82" s="35"/>
       <c r="N82" s="5"/>
@@ -33202,16 +33328,16 @@
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
       <c r="H83" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I83" s="38">
         <v>1</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="K83" s="33"/>
+      <c r="K83" s="5"/>
       <c r="L83" s="5"/>
       <c r="M83" s="35"/>
       <c r="N83" s="5"/>
@@ -33244,16 +33370,16 @@
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
       <c r="H84" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I84" s="38">
         <v>1</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="K84" s="33"/>
+      <c r="K84" s="5"/>
       <c r="L84" s="5"/>
       <c r="M84" s="35"/>
       <c r="N84" s="5"/>
@@ -33279,23 +33405,24 @@
     </row>
     <row r="85" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
-      <c r="B85" s="44"/>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="33">
-        <f t="shared" si="3"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="49"/>
+      <c r="F85" s="50"/>
+      <c r="G85" s="50"/>
+      <c r="H85" s="49">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I85" s="38">
+      <c r="I85" s="37">
+        <f>SUM(I86:I90)/COUNT(I86:I90)</f>
         <v>1</v>
       </c>
-      <c r="J85" s="22" t="s">
-        <v>31</v>
+      <c r="J85" s="41" t="s">
+        <v>30</v>
       </c>
-      <c r="K85" s="33"/>
+      <c r="K85" s="5"/>
       <c r="L85" s="5"/>
       <c r="M85" s="35"/>
       <c r="N85" s="5"/>
@@ -33322,22 +33449,22 @@
     <row r="86" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="44"/>
-      <c r="C86" s="22"/>
+      <c r="C86" s="52"/>
       <c r="D86" s="22"/>
       <c r="E86" s="33"/>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
       <c r="H86" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I86" s="38">
         <v>1</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="K86" s="33"/>
+      <c r="K86" s="5"/>
       <c r="L86" s="5"/>
       <c r="M86" s="35"/>
       <c r="N86" s="5"/>
@@ -33370,16 +33497,16 @@
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
       <c r="H87" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I87" s="38">
         <v>1</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="K87" s="33"/>
+      <c r="K87" s="5"/>
       <c r="L87" s="5"/>
       <c r="M87" s="35"/>
       <c r="N87" s="5"/>
@@ -33412,16 +33539,16 @@
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
       <c r="H88" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I88" s="38">
         <v>1</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="K88" s="33"/>
+      <c r="K88" s="5"/>
       <c r="L88" s="5"/>
       <c r="M88" s="35"/>
       <c r="N88" s="5"/>
@@ -33454,16 +33581,16 @@
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
       <c r="H89" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I89" s="38">
         <v>1</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="K89" s="33"/>
+      <c r="K89" s="5"/>
       <c r="L89" s="5"/>
       <c r="M89" s="35"/>
       <c r="N89" s="5"/>
@@ -33496,7 +33623,7 @@
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
       <c r="H90" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I90" s="38">
@@ -33505,7 +33632,7 @@
       <c r="J90" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K90" s="33"/>
+      <c r="K90" s="5"/>
       <c r="L90" s="5"/>
       <c r="M90" s="35"/>
       <c r="N90" s="5"/>
@@ -33538,17 +33665,16 @@
       <c r="F91" s="50"/>
       <c r="G91" s="50"/>
       <c r="H91" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I91" s="37">
-        <f>SUM(I92:I99)/COUNT(I92:I99)</f>
         <v>1</v>
       </c>
       <c r="J91" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K91" s="33"/>
+      <c r="K91" s="5"/>
       <c r="L91" s="5"/>
       <c r="M91" s="35"/>
       <c r="N91" s="5"/>
@@ -33581,7 +33707,7 @@
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
       <c r="H92" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I92" s="38">
@@ -33614,20 +33740,23 @@
       <c r="AF92" s="5"/>
       <c r="AG92" s="5"/>
     </row>
-    <row r="93" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="33"/>
-      <c r="I93" s="38">
-        <v>1</v>
+      <c r="B93" s="51"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="49"/>
+      <c r="F93" s="50"/>
+      <c r="G93" s="50"/>
+      <c r="H93" s="49">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
-      <c r="J93" s="22" t="s">
-        <v>30</v>
+      <c r="I93" s="37">
+        <v>0</v>
+      </c>
+      <c r="J93" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
@@ -33662,14 +33791,14 @@
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
       <c r="H94" s="33">
-        <f t="shared" ref="H94:H125" si="4">G94-F94</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I94" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J94" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
@@ -33708,10 +33837,10 @@
         <v>0</v>
       </c>
       <c r="I95" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J95" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
@@ -33750,10 +33879,10 @@
         <v>0</v>
       </c>
       <c r="I96" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J96" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
@@ -33792,10 +33921,10 @@
         <v>0</v>
       </c>
       <c r="I97" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J97" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
@@ -33834,10 +33963,10 @@
         <v>0</v>
       </c>
       <c r="I98" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J98" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
@@ -33863,23 +33992,23 @@
       <c r="AF98" s="5"/>
       <c r="AG98" s="5"/>
     </row>
-    <row r="99" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="33">
+      <c r="B99" s="51"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="49"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="50"/>
+      <c r="H99" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I99" s="38">
-        <v>1</v>
+      <c r="I99" s="37">
+        <v>0</v>
       </c>
-      <c r="J99" s="22" t="s">
-        <v>30</v>
+      <c r="J99" s="41" t="s">
+        <v>31</v>
       </c>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
@@ -33907,22 +34036,21 @@
     </row>
     <row r="100" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
-      <c r="B100" s="51"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="49"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="49">
+      <c r="B100" s="44"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="34"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I100" s="37">
-        <f>SUM(I101:I105)/COUNT(I101:I105)</f>
-        <v>1</v>
+      <c r="I100" s="38">
+        <v>0</v>
       </c>
-      <c r="J100" s="41" t="s">
-        <v>30</v>
+      <c r="J100" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
@@ -33951,7 +34079,7 @@
     <row r="101" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="44"/>
-      <c r="C101" s="52"/>
+      <c r="C101" s="22"/>
       <c r="D101" s="22"/>
       <c r="E101" s="33"/>
       <c r="F101" s="34"/>
@@ -33961,10 +34089,10 @@
         <v>0</v>
       </c>
       <c r="I101" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -34003,10 +34131,10 @@
         <v>0</v>
       </c>
       <c r="I102" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -34045,10 +34173,10 @@
         <v>0</v>
       </c>
       <c r="I103" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
@@ -34087,10 +34215,10 @@
         <v>0</v>
       </c>
       <c r="I104" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
@@ -34118,21 +34246,21 @@
     </row>
     <row r="105" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="22"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="34"/>
-      <c r="G105" s="34"/>
-      <c r="H105" s="33">
+      <c r="B105" s="51"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="49"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="49">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I105" s="38">
-        <v>1</v>
+      <c r="I105" s="37">
+        <v>0</v>
       </c>
-      <c r="J105" s="22" t="s">
-        <v>30</v>
+      <c r="J105" s="41" t="s">
+        <v>31</v>
       </c>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
@@ -34160,21 +34288,21 @@
     </row>
     <row r="106" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
-      <c r="B106" s="51"/>
-      <c r="C106" s="24"/>
-      <c r="D106" s="24"/>
-      <c r="E106" s="49"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="50"/>
-      <c r="H106" s="49">
+      <c r="B106" s="44"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="34"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I106" s="37">
-        <v>1</v>
+      <c r="I106" s="38">
+        <v>0</v>
       </c>
-      <c r="J106" s="41" t="s">
-        <v>30</v>
+      <c r="J106" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
@@ -34213,10 +34341,10 @@
         <v>0</v>
       </c>
       <c r="I107" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" s="22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -34242,23 +34370,23 @@
       <c r="AF107" s="5"/>
       <c r="AG107" s="5"/>
     </row>
-    <row r="108" spans="1:33" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
-      <c r="B108" s="51"/>
-      <c r="C108" s="24"/>
-      <c r="D108" s="24"/>
-      <c r="E108" s="49"/>
-      <c r="F108" s="50"/>
-      <c r="G108" s="50"/>
-      <c r="H108" s="49">
+      <c r="B108" s="44"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+      <c r="E108" s="33"/>
+      <c r="F108" s="34"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="33">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I108" s="37">
+      <c r="I108" s="38">
         <v>0</v>
       </c>
-      <c r="J108" s="41" t="s">
-        <v>32</v>
+      <c r="J108" s="22" t="s">
+        <v>31</v>
       </c>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
@@ -34297,10 +34425,10 @@
         <v>0</v>
       </c>
       <c r="I109" s="38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J109" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
@@ -34328,23 +34456,19 @@
     </row>
     <row r="110" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="22"/>
-      <c r="D110" s="22"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="34"/>
-      <c r="G110" s="34"/>
-      <c r="H110" s="33">
+      <c r="B110" s="53"/>
+      <c r="C110" s="54"/>
+      <c r="D110" s="54"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="55"/>
+      <c r="H110" s="56">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I110" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="J110" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K110" s="5"/>
+      <c r="I110" s="57"/>
+      <c r="J110" s="57"/>
+      <c r="K110" s="57"/>
       <c r="L110" s="5"/>
       <c r="M110" s="35"/>
       <c r="N110" s="5"/>
@@ -34368,24 +34492,17 @@
       <c r="AF110" s="5"/>
       <c r="AG110" s="5"/>
     </row>
-    <row r="111" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I111" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="J111" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
       <c r="M111" s="35"/>
@@ -34410,24 +34527,17 @@
       <c r="AF111" s="5"/>
       <c r="AG111" s="5"/>
     </row>
-    <row r="112" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="44"/>
-      <c r="C112" s="22"/>
-      <c r="D112" s="22"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="34"/>
-      <c r="G112" s="34"/>
-      <c r="H112" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I112" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="J112" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
       <c r="M112" s="35"/>
@@ -34452,24 +34562,17 @@
       <c r="AF112" s="5"/>
       <c r="AG112" s="5"/>
     </row>
-    <row r="113" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I113" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="J113" s="22" t="s">
-        <v>32</v>
-      </c>
+      <c r="B113" s="1"/>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
       <c r="M113" s="35"/>
@@ -34494,24 +34597,17 @@
       <c r="AF113" s="5"/>
       <c r="AG113" s="5"/>
     </row>
-    <row r="114" spans="1:33" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
-      <c r="B114" s="51"/>
-      <c r="C114" s="24"/>
-      <c r="D114" s="24"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="50"/>
-      <c r="G114" s="50"/>
-      <c r="H114" s="49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I114" s="37">
-        <v>0</v>
-      </c>
-      <c r="J114" s="41" t="s">
-        <v>31</v>
-      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
       <c r="M114" s="35"/>
@@ -34536,24 +34632,17 @@
       <c r="AF114" s="5"/>
       <c r="AG114" s="5"/>
     </row>
-    <row r="115" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
-      <c r="B115" s="44"/>
-      <c r="C115" s="22"/>
-      <c r="D115" s="22"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="38">
-        <v>0</v>
-      </c>
-      <c r="J115" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
       <c r="M115" s="35"/>
@@ -34578,24 +34667,17 @@
       <c r="AF115" s="5"/>
       <c r="AG115" s="5"/>
     </row>
-    <row r="116" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
-      <c r="B116" s="44"/>
-      <c r="C116" s="22"/>
-      <c r="D116" s="22"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="34"/>
-      <c r="G116" s="34"/>
-      <c r="H116" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I116" s="38">
-        <v>0</v>
-      </c>
-      <c r="J116" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
       <c r="M116" s="35"/>
@@ -34620,24 +34702,17 @@
       <c r="AF116" s="5"/>
       <c r="AG116" s="5"/>
     </row>
-    <row r="117" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
-      <c r="B117" s="44"/>
-      <c r="C117" s="22"/>
-      <c r="D117" s="22"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I117" s="38">
-        <v>0</v>
-      </c>
-      <c r="J117" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="B117" s="1"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
       <c r="M117" s="35"/>
@@ -34662,24 +34737,17 @@
       <c r="AF117" s="5"/>
       <c r="AG117" s="5"/>
     </row>
-    <row r="118" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-      <c r="B118" s="44"/>
-      <c r="C118" s="22"/>
-      <c r="D118" s="22"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="34"/>
-      <c r="G118" s="34"/>
-      <c r="H118" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I118" s="38">
-        <v>0</v>
-      </c>
-      <c r="J118" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
       <c r="M118" s="35"/>
@@ -34704,24 +34772,17 @@
       <c r="AF118" s="5"/>
       <c r="AG118" s="5"/>
     </row>
-    <row r="119" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
-      <c r="B119" s="44"/>
-      <c r="C119" s="22"/>
-      <c r="D119" s="22"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="34"/>
-      <c r="G119" s="34"/>
-      <c r="H119" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I119" s="38">
-        <v>0</v>
-      </c>
-      <c r="J119" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="B119" s="1"/>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="I119" s="5"/>
+      <c r="J119" s="5"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
       <c r="M119" s="35"/>
@@ -34746,24 +34807,17 @@
       <c r="AF119" s="5"/>
       <c r="AG119" s="5"/>
     </row>
-    <row r="120" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
-      <c r="B120" s="51"/>
-      <c r="C120" s="24"/>
-      <c r="D120" s="24"/>
-      <c r="E120" s="49"/>
-      <c r="F120" s="50"/>
-      <c r="G120" s="50"/>
-      <c r="H120" s="49">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I120" s="37">
-        <v>0</v>
-      </c>
-      <c r="J120" s="41" t="s">
-        <v>31</v>
-      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
       <c r="M120" s="35"/>
@@ -34788,24 +34842,17 @@
       <c r="AF120" s="5"/>
       <c r="AG120" s="5"/>
     </row>
-    <row r="121" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
-      <c r="B121" s="44"/>
-      <c r="C121" s="22"/>
-      <c r="D121" s="22"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="34"/>
-      <c r="G121" s="34"/>
-      <c r="H121" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I121" s="38">
-        <v>0</v>
-      </c>
-      <c r="J121" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="B121" s="1"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
       <c r="M121" s="35"/>
@@ -34830,24 +34877,17 @@
       <c r="AF121" s="5"/>
       <c r="AG121" s="5"/>
     </row>
-    <row r="122" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
-      <c r="B122" s="44"/>
-      <c r="C122" s="22"/>
-      <c r="D122" s="22"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="34"/>
-      <c r="G122" s="34"/>
-      <c r="H122" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I122" s="38">
-        <v>0</v>
-      </c>
-      <c r="J122" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="5"/>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
       <c r="M122" s="35"/>
@@ -34872,24 +34912,17 @@
       <c r="AF122" s="5"/>
       <c r="AG122" s="5"/>
     </row>
-    <row r="123" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
-      <c r="B123" s="44"/>
-      <c r="C123" s="22"/>
-      <c r="D123" s="22"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="34"/>
-      <c r="G123" s="34"/>
-      <c r="H123" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I123" s="38">
-        <v>0</v>
-      </c>
-      <c r="J123" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="B123" s="1"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="5"/>
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
       <c r="M123" s="35"/>
@@ -34914,24 +34947,17 @@
       <c r="AF123" s="5"/>
       <c r="AG123" s="5"/>
     </row>
-    <row r="124" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="22"/>
-      <c r="D124" s="22"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="34"/>
-      <c r="G124" s="34"/>
-      <c r="H124" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I124" s="38">
-        <v>0</v>
-      </c>
-      <c r="J124" s="22" t="s">
-        <v>31</v>
-      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="5"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
       <c r="M124" s="35"/>
@@ -34956,21 +34982,18 @@
       <c r="AF124" s="5"/>
       <c r="AG124" s="5"/>
     </row>
-    <row r="125" spans="1:33" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="54"/>
-      <c r="D125" s="54"/>
-      <c r="E125" s="54"/>
-      <c r="F125" s="55"/>
-      <c r="G125" s="55"/>
-      <c r="H125" s="56">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I125" s="57"/>
-      <c r="J125" s="57"/>
-      <c r="K125" s="57"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="5"/>
+      <c r="E125" s="5"/>
+      <c r="F125" s="5"/>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
       <c r="L125" s="5"/>
       <c r="M125" s="35"/>
       <c r="N125" s="5"/>
@@ -38497,527 +38520,527 @@
     <row r="226" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
-      <c r="C226" s="5"/>
-      <c r="D226" s="5"/>
-      <c r="E226" s="5"/>
-      <c r="F226" s="5"/>
-      <c r="G226" s="5"/>
-      <c r="H226" s="5"/>
-      <c r="I226" s="5"/>
-      <c r="J226" s="5"/>
-      <c r="K226" s="5"/>
-      <c r="L226" s="5"/>
-      <c r="M226" s="35"/>
-      <c r="N226" s="5"/>
-      <c r="O226" s="5"/>
-      <c r="P226" s="5"/>
-      <c r="Q226" s="5"/>
-      <c r="R226" s="5"/>
-      <c r="S226" s="5"/>
-      <c r="T226" s="5"/>
-      <c r="U226" s="5"/>
-      <c r="V226" s="5"/>
-      <c r="W226" s="5"/>
-      <c r="X226" s="5"/>
-      <c r="Y226" s="5"/>
-      <c r="Z226" s="5"/>
-      <c r="AA226" s="5"/>
-      <c r="AB226" s="5"/>
-      <c r="AC226" s="5"/>
-      <c r="AD226" s="5"/>
-      <c r="AE226" s="5"/>
-      <c r="AF226" s="5"/>
-      <c r="AG226" s="5"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="11"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+      <c r="U226" s="1"/>
+      <c r="V226" s="1"/>
+      <c r="W226" s="1"/>
+      <c r="X226" s="1"/>
+      <c r="Y226" s="1"/>
+      <c r="Z226" s="1"/>
+      <c r="AA226" s="1"/>
+      <c r="AB226" s="1"/>
+      <c r="AC226" s="1"/>
+      <c r="AD226" s="1"/>
+      <c r="AE226" s="1"/>
+      <c r="AF226" s="1"/>
+      <c r="AG226" s="1"/>
     </row>
     <row r="227" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
-      <c r="J227" s="5"/>
-      <c r="K227" s="5"/>
-      <c r="L227" s="5"/>
-      <c r="M227" s="35"/>
-      <c r="N227" s="5"/>
-      <c r="O227" s="5"/>
-      <c r="P227" s="5"/>
-      <c r="Q227" s="5"/>
-      <c r="R227" s="5"/>
-      <c r="S227" s="5"/>
-      <c r="T227" s="5"/>
-      <c r="U227" s="5"/>
-      <c r="V227" s="5"/>
-      <c r="W227" s="5"/>
-      <c r="X227" s="5"/>
-      <c r="Y227" s="5"/>
-      <c r="Z227" s="5"/>
-      <c r="AA227" s="5"/>
-      <c r="AB227" s="5"/>
-      <c r="AC227" s="5"/>
-      <c r="AD227" s="5"/>
-      <c r="AE227" s="5"/>
-      <c r="AF227" s="5"/>
-      <c r="AG227" s="5"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="11"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+      <c r="U227" s="1"/>
+      <c r="V227" s="1"/>
+      <c r="W227" s="1"/>
+      <c r="X227" s="1"/>
+      <c r="Y227" s="1"/>
+      <c r="Z227" s="1"/>
+      <c r="AA227" s="1"/>
+      <c r="AB227" s="1"/>
+      <c r="AC227" s="1"/>
+      <c r="AD227" s="1"/>
+      <c r="AE227" s="1"/>
+      <c r="AF227" s="1"/>
+      <c r="AG227" s="1"/>
     </row>
     <row r="228" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
-      <c r="C228" s="5"/>
-      <c r="D228" s="5"/>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="5"/>
-      <c r="H228" s="5"/>
-      <c r="I228" s="5"/>
-      <c r="J228" s="5"/>
-      <c r="K228" s="5"/>
-      <c r="L228" s="5"/>
-      <c r="M228" s="35"/>
-      <c r="N228" s="5"/>
-      <c r="O228" s="5"/>
-      <c r="P228" s="5"/>
-      <c r="Q228" s="5"/>
-      <c r="R228" s="5"/>
-      <c r="S228" s="5"/>
-      <c r="T228" s="5"/>
-      <c r="U228" s="5"/>
-      <c r="V228" s="5"/>
-      <c r="W228" s="5"/>
-      <c r="X228" s="5"/>
-      <c r="Y228" s="5"/>
-      <c r="Z228" s="5"/>
-      <c r="AA228" s="5"/>
-      <c r="AB228" s="5"/>
-      <c r="AC228" s="5"/>
-      <c r="AD228" s="5"/>
-      <c r="AE228" s="5"/>
-      <c r="AF228" s="5"/>
-      <c r="AG228" s="5"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="11"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+      <c r="U228" s="1"/>
+      <c r="V228" s="1"/>
+      <c r="W228" s="1"/>
+      <c r="X228" s="1"/>
+      <c r="Y228" s="1"/>
+      <c r="Z228" s="1"/>
+      <c r="AA228" s="1"/>
+      <c r="AB228" s="1"/>
+      <c r="AC228" s="1"/>
+      <c r="AD228" s="1"/>
+      <c r="AE228" s="1"/>
+      <c r="AF228" s="1"/>
+      <c r="AG228" s="1"/>
     </row>
     <row r="229" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
-      <c r="C229" s="5"/>
-      <c r="D229" s="5"/>
-      <c r="E229" s="5"/>
-      <c r="F229" s="5"/>
-      <c r="G229" s="5"/>
-      <c r="H229" s="5"/>
-      <c r="I229" s="5"/>
-      <c r="J229" s="5"/>
-      <c r="K229" s="5"/>
-      <c r="L229" s="5"/>
-      <c r="M229" s="35"/>
-      <c r="N229" s="5"/>
-      <c r="O229" s="5"/>
-      <c r="P229" s="5"/>
-      <c r="Q229" s="5"/>
-      <c r="R229" s="5"/>
-      <c r="S229" s="5"/>
-      <c r="T229" s="5"/>
-      <c r="U229" s="5"/>
-      <c r="V229" s="5"/>
-      <c r="W229" s="5"/>
-      <c r="X229" s="5"/>
-      <c r="Y229" s="5"/>
-      <c r="Z229" s="5"/>
-      <c r="AA229" s="5"/>
-      <c r="AB229" s="5"/>
-      <c r="AC229" s="5"/>
-      <c r="AD229" s="5"/>
-      <c r="AE229" s="5"/>
-      <c r="AF229" s="5"/>
-      <c r="AG229" s="5"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="11"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+      <c r="U229" s="1"/>
+      <c r="V229" s="1"/>
+      <c r="W229" s="1"/>
+      <c r="X229" s="1"/>
+      <c r="Y229" s="1"/>
+      <c r="Z229" s="1"/>
+      <c r="AA229" s="1"/>
+      <c r="AB229" s="1"/>
+      <c r="AC229" s="1"/>
+      <c r="AD229" s="1"/>
+      <c r="AE229" s="1"/>
+      <c r="AF229" s="1"/>
+      <c r="AG229" s="1"/>
     </row>
     <row r="230" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
-      <c r="C230" s="5"/>
-      <c r="D230" s="5"/>
-      <c r="E230" s="5"/>
-      <c r="F230" s="5"/>
-      <c r="G230" s="5"/>
-      <c r="H230" s="5"/>
-      <c r="I230" s="5"/>
-      <c r="J230" s="5"/>
-      <c r="K230" s="5"/>
-      <c r="L230" s="5"/>
-      <c r="M230" s="35"/>
-      <c r="N230" s="5"/>
-      <c r="O230" s="5"/>
-      <c r="P230" s="5"/>
-      <c r="Q230" s="5"/>
-      <c r="R230" s="5"/>
-      <c r="S230" s="5"/>
-      <c r="T230" s="5"/>
-      <c r="U230" s="5"/>
-      <c r="V230" s="5"/>
-      <c r="W230" s="5"/>
-      <c r="X230" s="5"/>
-      <c r="Y230" s="5"/>
-      <c r="Z230" s="5"/>
-      <c r="AA230" s="5"/>
-      <c r="AB230" s="5"/>
-      <c r="AC230" s="5"/>
-      <c r="AD230" s="5"/>
-      <c r="AE230" s="5"/>
-      <c r="AF230" s="5"/>
-      <c r="AG230" s="5"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="11"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+      <c r="U230" s="1"/>
+      <c r="V230" s="1"/>
+      <c r="W230" s="1"/>
+      <c r="X230" s="1"/>
+      <c r="Y230" s="1"/>
+      <c r="Z230" s="1"/>
+      <c r="AA230" s="1"/>
+      <c r="AB230" s="1"/>
+      <c r="AC230" s="1"/>
+      <c r="AD230" s="1"/>
+      <c r="AE230" s="1"/>
+      <c r="AF230" s="1"/>
+      <c r="AG230" s="1"/>
     </row>
     <row r="231" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
-      <c r="C231" s="5"/>
-      <c r="D231" s="5"/>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
-      <c r="I231" s="5"/>
-      <c r="J231" s="5"/>
-      <c r="K231" s="5"/>
-      <c r="L231" s="5"/>
-      <c r="M231" s="35"/>
-      <c r="N231" s="5"/>
-      <c r="O231" s="5"/>
-      <c r="P231" s="5"/>
-      <c r="Q231" s="5"/>
-      <c r="R231" s="5"/>
-      <c r="S231" s="5"/>
-      <c r="T231" s="5"/>
-      <c r="U231" s="5"/>
-      <c r="V231" s="5"/>
-      <c r="W231" s="5"/>
-      <c r="X231" s="5"/>
-      <c r="Y231" s="5"/>
-      <c r="Z231" s="5"/>
-      <c r="AA231" s="5"/>
-      <c r="AB231" s="5"/>
-      <c r="AC231" s="5"/>
-      <c r="AD231" s="5"/>
-      <c r="AE231" s="5"/>
-      <c r="AF231" s="5"/>
-      <c r="AG231" s="5"/>
+      <c r="C231" s="1"/>
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+      <c r="F231" s="1"/>
+      <c r="G231" s="1"/>
+      <c r="H231" s="1"/>
+      <c r="I231" s="1"/>
+      <c r="J231" s="1"/>
+      <c r="K231" s="1"/>
+      <c r="L231" s="1"/>
+      <c r="M231" s="11"/>
+      <c r="N231" s="1"/>
+      <c r="O231" s="1"/>
+      <c r="P231" s="1"/>
+      <c r="Q231" s="1"/>
+      <c r="R231" s="1"/>
+      <c r="S231" s="1"/>
+      <c r="T231" s="1"/>
+      <c r="U231" s="1"/>
+      <c r="V231" s="1"/>
+      <c r="W231" s="1"/>
+      <c r="X231" s="1"/>
+      <c r="Y231" s="1"/>
+      <c r="Z231" s="1"/>
+      <c r="AA231" s="1"/>
+      <c r="AB231" s="1"/>
+      <c r="AC231" s="1"/>
+      <c r="AD231" s="1"/>
+      <c r="AE231" s="1"/>
+      <c r="AF231" s="1"/>
+      <c r="AG231" s="1"/>
     </row>
     <row r="232" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
-      <c r="E232" s="5"/>
-      <c r="F232" s="5"/>
-      <c r="G232" s="5"/>
-      <c r="H232" s="5"/>
-      <c r="I232" s="5"/>
-      <c r="J232" s="5"/>
-      <c r="K232" s="5"/>
-      <c r="L232" s="5"/>
-      <c r="M232" s="35"/>
-      <c r="N232" s="5"/>
-      <c r="O232" s="5"/>
-      <c r="P232" s="5"/>
-      <c r="Q232" s="5"/>
-      <c r="R232" s="5"/>
-      <c r="S232" s="5"/>
-      <c r="T232" s="5"/>
-      <c r="U232" s="5"/>
-      <c r="V232" s="5"/>
-      <c r="W232" s="5"/>
-      <c r="X232" s="5"/>
-      <c r="Y232" s="5"/>
-      <c r="Z232" s="5"/>
-      <c r="AA232" s="5"/>
-      <c r="AB232" s="5"/>
-      <c r="AC232" s="5"/>
-      <c r="AD232" s="5"/>
-      <c r="AE232" s="5"/>
-      <c r="AF232" s="5"/>
-      <c r="AG232" s="5"/>
+      <c r="C232" s="1"/>
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+      <c r="F232" s="1"/>
+      <c r="G232" s="1"/>
+      <c r="H232" s="1"/>
+      <c r="I232" s="1"/>
+      <c r="J232" s="1"/>
+      <c r="K232" s="1"/>
+      <c r="L232" s="1"/>
+      <c r="M232" s="11"/>
+      <c r="N232" s="1"/>
+      <c r="O232" s="1"/>
+      <c r="P232" s="1"/>
+      <c r="Q232" s="1"/>
+      <c r="R232" s="1"/>
+      <c r="S232" s="1"/>
+      <c r="T232" s="1"/>
+      <c r="U232" s="1"/>
+      <c r="V232" s="1"/>
+      <c r="W232" s="1"/>
+      <c r="X232" s="1"/>
+      <c r="Y232" s="1"/>
+      <c r="Z232" s="1"/>
+      <c r="AA232" s="1"/>
+      <c r="AB232" s="1"/>
+      <c r="AC232" s="1"/>
+      <c r="AD232" s="1"/>
+      <c r="AE232" s="1"/>
+      <c r="AF232" s="1"/>
+      <c r="AG232" s="1"/>
     </row>
     <row r="233" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
-      <c r="C233" s="5"/>
-      <c r="D233" s="5"/>
-      <c r="E233" s="5"/>
-      <c r="F233" s="5"/>
-      <c r="G233" s="5"/>
-      <c r="H233" s="5"/>
-      <c r="I233" s="5"/>
-      <c r="J233" s="5"/>
-      <c r="K233" s="5"/>
-      <c r="L233" s="5"/>
-      <c r="M233" s="35"/>
-      <c r="N233" s="5"/>
-      <c r="O233" s="5"/>
-      <c r="P233" s="5"/>
-      <c r="Q233" s="5"/>
-      <c r="R233" s="5"/>
-      <c r="S233" s="5"/>
-      <c r="T233" s="5"/>
-      <c r="U233" s="5"/>
-      <c r="V233" s="5"/>
-      <c r="W233" s="5"/>
-      <c r="X233" s="5"/>
-      <c r="Y233" s="5"/>
-      <c r="Z233" s="5"/>
-      <c r="AA233" s="5"/>
-      <c r="AB233" s="5"/>
-      <c r="AC233" s="5"/>
-      <c r="AD233" s="5"/>
-      <c r="AE233" s="5"/>
-      <c r="AF233" s="5"/>
-      <c r="AG233" s="5"/>
+      <c r="C233" s="1"/>
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+      <c r="F233" s="1"/>
+      <c r="G233" s="1"/>
+      <c r="H233" s="1"/>
+      <c r="I233" s="1"/>
+      <c r="J233" s="1"/>
+      <c r="K233" s="1"/>
+      <c r="L233" s="1"/>
+      <c r="M233" s="11"/>
+      <c r="N233" s="1"/>
+      <c r="O233" s="1"/>
+      <c r="P233" s="1"/>
+      <c r="Q233" s="1"/>
+      <c r="R233" s="1"/>
+      <c r="S233" s="1"/>
+      <c r="T233" s="1"/>
+      <c r="U233" s="1"/>
+      <c r="V233" s="1"/>
+      <c r="W233" s="1"/>
+      <c r="X233" s="1"/>
+      <c r="Y233" s="1"/>
+      <c r="Z233" s="1"/>
+      <c r="AA233" s="1"/>
+      <c r="AB233" s="1"/>
+      <c r="AC233" s="1"/>
+      <c r="AD233" s="1"/>
+      <c r="AE233" s="1"/>
+      <c r="AF233" s="1"/>
+      <c r="AG233" s="1"/>
     </row>
     <row r="234" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
-      <c r="C234" s="5"/>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="5"/>
-      <c r="H234" s="5"/>
-      <c r="I234" s="5"/>
-      <c r="J234" s="5"/>
-      <c r="K234" s="5"/>
-      <c r="L234" s="5"/>
-      <c r="M234" s="35"/>
-      <c r="N234" s="5"/>
-      <c r="O234" s="5"/>
-      <c r="P234" s="5"/>
-      <c r="Q234" s="5"/>
-      <c r="R234" s="5"/>
-      <c r="S234" s="5"/>
-      <c r="T234" s="5"/>
-      <c r="U234" s="5"/>
-      <c r="V234" s="5"/>
-      <c r="W234" s="5"/>
-      <c r="X234" s="5"/>
-      <c r="Y234" s="5"/>
-      <c r="Z234" s="5"/>
-      <c r="AA234" s="5"/>
-      <c r="AB234" s="5"/>
-      <c r="AC234" s="5"/>
-      <c r="AD234" s="5"/>
-      <c r="AE234" s="5"/>
-      <c r="AF234" s="5"/>
-      <c r="AG234" s="5"/>
+      <c r="C234" s="1"/>
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+      <c r="F234" s="1"/>
+      <c r="G234" s="1"/>
+      <c r="H234" s="1"/>
+      <c r="I234" s="1"/>
+      <c r="J234" s="1"/>
+      <c r="K234" s="1"/>
+      <c r="L234" s="1"/>
+      <c r="M234" s="11"/>
+      <c r="N234" s="1"/>
+      <c r="O234" s="1"/>
+      <c r="P234" s="1"/>
+      <c r="Q234" s="1"/>
+      <c r="R234" s="1"/>
+      <c r="S234" s="1"/>
+      <c r="T234" s="1"/>
+      <c r="U234" s="1"/>
+      <c r="V234" s="1"/>
+      <c r="W234" s="1"/>
+      <c r="X234" s="1"/>
+      <c r="Y234" s="1"/>
+      <c r="Z234" s="1"/>
+      <c r="AA234" s="1"/>
+      <c r="AB234" s="1"/>
+      <c r="AC234" s="1"/>
+      <c r="AD234" s="1"/>
+      <c r="AE234" s="1"/>
+      <c r="AF234" s="1"/>
+      <c r="AG234" s="1"/>
     </row>
     <row r="235" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
-      <c r="C235" s="5"/>
-      <c r="D235" s="5"/>
-      <c r="E235" s="5"/>
-      <c r="F235" s="5"/>
-      <c r="G235" s="5"/>
-      <c r="H235" s="5"/>
-      <c r="I235" s="5"/>
-      <c r="J235" s="5"/>
-      <c r="K235" s="5"/>
-      <c r="L235" s="5"/>
-      <c r="M235" s="35"/>
-      <c r="N235" s="5"/>
-      <c r="O235" s="5"/>
-      <c r="P235" s="5"/>
-      <c r="Q235" s="5"/>
-      <c r="R235" s="5"/>
-      <c r="S235" s="5"/>
-      <c r="T235" s="5"/>
-      <c r="U235" s="5"/>
-      <c r="V235" s="5"/>
-      <c r="W235" s="5"/>
-      <c r="X235" s="5"/>
-      <c r="Y235" s="5"/>
-      <c r="Z235" s="5"/>
-      <c r="AA235" s="5"/>
-      <c r="AB235" s="5"/>
-      <c r="AC235" s="5"/>
-      <c r="AD235" s="5"/>
-      <c r="AE235" s="5"/>
-      <c r="AF235" s="5"/>
-      <c r="AG235" s="5"/>
+      <c r="C235" s="1"/>
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+      <c r="F235" s="1"/>
+      <c r="G235" s="1"/>
+      <c r="H235" s="1"/>
+      <c r="I235" s="1"/>
+      <c r="J235" s="1"/>
+      <c r="K235" s="1"/>
+      <c r="L235" s="1"/>
+      <c r="M235" s="11"/>
+      <c r="N235" s="1"/>
+      <c r="O235" s="1"/>
+      <c r="P235" s="1"/>
+      <c r="Q235" s="1"/>
+      <c r="R235" s="1"/>
+      <c r="S235" s="1"/>
+      <c r="T235" s="1"/>
+      <c r="U235" s="1"/>
+      <c r="V235" s="1"/>
+      <c r="W235" s="1"/>
+      <c r="X235" s="1"/>
+      <c r="Y235" s="1"/>
+      <c r="Z235" s="1"/>
+      <c r="AA235" s="1"/>
+      <c r="AB235" s="1"/>
+      <c r="AC235" s="1"/>
+      <c r="AD235" s="1"/>
+      <c r="AE235" s="1"/>
+      <c r="AF235" s="1"/>
+      <c r="AG235" s="1"/>
     </row>
     <row r="236" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
-      <c r="C236" s="5"/>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
-      <c r="I236" s="5"/>
-      <c r="J236" s="5"/>
-      <c r="K236" s="5"/>
-      <c r="L236" s="5"/>
-      <c r="M236" s="35"/>
-      <c r="N236" s="5"/>
-      <c r="O236" s="5"/>
-      <c r="P236" s="5"/>
-      <c r="Q236" s="5"/>
-      <c r="R236" s="5"/>
-      <c r="S236" s="5"/>
-      <c r="T236" s="5"/>
-      <c r="U236" s="5"/>
-      <c r="V236" s="5"/>
-      <c r="W236" s="5"/>
-      <c r="X236" s="5"/>
-      <c r="Y236" s="5"/>
-      <c r="Z236" s="5"/>
-      <c r="AA236" s="5"/>
-      <c r="AB236" s="5"/>
-      <c r="AC236" s="5"/>
-      <c r="AD236" s="5"/>
-      <c r="AE236" s="5"/>
-      <c r="AF236" s="5"/>
-      <c r="AG236" s="5"/>
+      <c r="C236" s="1"/>
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+      <c r="F236" s="1"/>
+      <c r="G236" s="1"/>
+      <c r="H236" s="1"/>
+      <c r="I236" s="1"/>
+      <c r="J236" s="1"/>
+      <c r="K236" s="1"/>
+      <c r="L236" s="1"/>
+      <c r="M236" s="11"/>
+      <c r="N236" s="1"/>
+      <c r="O236" s="1"/>
+      <c r="P236" s="1"/>
+      <c r="Q236" s="1"/>
+      <c r="R236" s="1"/>
+      <c r="S236" s="1"/>
+      <c r="T236" s="1"/>
+      <c r="U236" s="1"/>
+      <c r="V236" s="1"/>
+      <c r="W236" s="1"/>
+      <c r="X236" s="1"/>
+      <c r="Y236" s="1"/>
+      <c r="Z236" s="1"/>
+      <c r="AA236" s="1"/>
+      <c r="AB236" s="1"/>
+      <c r="AC236" s="1"/>
+      <c r="AD236" s="1"/>
+      <c r="AE236" s="1"/>
+      <c r="AF236" s="1"/>
+      <c r="AG236" s="1"/>
     </row>
     <row r="237" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5"/>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5"/>
-      <c r="K237" s="5"/>
-      <c r="L237" s="5"/>
-      <c r="M237" s="35"/>
-      <c r="N237" s="5"/>
-      <c r="O237" s="5"/>
-      <c r="P237" s="5"/>
-      <c r="Q237" s="5"/>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
-      <c r="U237" s="5"/>
-      <c r="V237" s="5"/>
-      <c r="W237" s="5"/>
-      <c r="X237" s="5"/>
-      <c r="Y237" s="5"/>
-      <c r="Z237" s="5"/>
-      <c r="AA237" s="5"/>
-      <c r="AB237" s="5"/>
-      <c r="AC237" s="5"/>
-      <c r="AD237" s="5"/>
-      <c r="AE237" s="5"/>
-      <c r="AF237" s="5"/>
-      <c r="AG237" s="5"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+      <c r="F237" s="1"/>
+      <c r="G237" s="1"/>
+      <c r="H237" s="1"/>
+      <c r="I237" s="1"/>
+      <c r="J237" s="1"/>
+      <c r="K237" s="1"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="11"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="1"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="1"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
+      <c r="V237" s="1"/>
+      <c r="W237" s="1"/>
+      <c r="X237" s="1"/>
+      <c r="Y237" s="1"/>
+      <c r="Z237" s="1"/>
+      <c r="AA237" s="1"/>
+      <c r="AB237" s="1"/>
+      <c r="AC237" s="1"/>
+      <c r="AD237" s="1"/>
+      <c r="AE237" s="1"/>
+      <c r="AF237" s="1"/>
+      <c r="AG237" s="1"/>
     </row>
     <row r="238" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
-      <c r="C238" s="5"/>
-      <c r="D238" s="5"/>
-      <c r="E238" s="5"/>
-      <c r="F238" s="5"/>
-      <c r="G238" s="5"/>
-      <c r="H238" s="5"/>
-      <c r="I238" s="5"/>
-      <c r="J238" s="5"/>
-      <c r="K238" s="5"/>
-      <c r="L238" s="5"/>
-      <c r="M238" s="35"/>
-      <c r="N238" s="5"/>
-      <c r="O238" s="5"/>
-      <c r="P238" s="5"/>
-      <c r="Q238" s="5"/>
-      <c r="R238" s="5"/>
-      <c r="S238" s="5"/>
-      <c r="T238" s="5"/>
-      <c r="U238" s="5"/>
-      <c r="V238" s="5"/>
-      <c r="W238" s="5"/>
-      <c r="X238" s="5"/>
-      <c r="Y238" s="5"/>
-      <c r="Z238" s="5"/>
-      <c r="AA238" s="5"/>
-      <c r="AB238" s="5"/>
-      <c r="AC238" s="5"/>
-      <c r="AD238" s="5"/>
-      <c r="AE238" s="5"/>
-      <c r="AF238" s="5"/>
-      <c r="AG238" s="5"/>
+      <c r="C238" s="1"/>
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+      <c r="F238" s="1"/>
+      <c r="G238" s="1"/>
+      <c r="H238" s="1"/>
+      <c r="I238" s="1"/>
+      <c r="J238" s="1"/>
+      <c r="K238" s="1"/>
+      <c r="L238" s="1"/>
+      <c r="M238" s="11"/>
+      <c r="N238" s="1"/>
+      <c r="O238" s="1"/>
+      <c r="P238" s="1"/>
+      <c r="Q238" s="1"/>
+      <c r="R238" s="1"/>
+      <c r="S238" s="1"/>
+      <c r="T238" s="1"/>
+      <c r="U238" s="1"/>
+      <c r="V238" s="1"/>
+      <c r="W238" s="1"/>
+      <c r="X238" s="1"/>
+      <c r="Y238" s="1"/>
+      <c r="Z238" s="1"/>
+      <c r="AA238" s="1"/>
+      <c r="AB238" s="1"/>
+      <c r="AC238" s="1"/>
+      <c r="AD238" s="1"/>
+      <c r="AE238" s="1"/>
+      <c r="AF238" s="1"/>
+      <c r="AG238" s="1"/>
     </row>
     <row r="239" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
-      <c r="C239" s="5"/>
-      <c r="D239" s="5"/>
-      <c r="E239" s="5"/>
-      <c r="F239" s="5"/>
-      <c r="G239" s="5"/>
-      <c r="H239" s="5"/>
-      <c r="I239" s="5"/>
-      <c r="J239" s="5"/>
-      <c r="K239" s="5"/>
-      <c r="L239" s="5"/>
-      <c r="M239" s="35"/>
-      <c r="N239" s="5"/>
-      <c r="O239" s="5"/>
-      <c r="P239" s="5"/>
-      <c r="Q239" s="5"/>
-      <c r="R239" s="5"/>
-      <c r="S239" s="5"/>
-      <c r="T239" s="5"/>
-      <c r="U239" s="5"/>
-      <c r="V239" s="5"/>
-      <c r="W239" s="5"/>
-      <c r="X239" s="5"/>
-      <c r="Y239" s="5"/>
-      <c r="Z239" s="5"/>
-      <c r="AA239" s="5"/>
-      <c r="AB239" s="5"/>
-      <c r="AC239" s="5"/>
-      <c r="AD239" s="5"/>
-      <c r="AE239" s="5"/>
-      <c r="AF239" s="5"/>
-      <c r="AG239" s="5"/>
+      <c r="C239" s="1"/>
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+      <c r="F239" s="1"/>
+      <c r="G239" s="1"/>
+      <c r="H239" s="1"/>
+      <c r="I239" s="1"/>
+      <c r="J239" s="1"/>
+      <c r="K239" s="1"/>
+      <c r="L239" s="1"/>
+      <c r="M239" s="11"/>
+      <c r="N239" s="1"/>
+      <c r="O239" s="1"/>
+      <c r="P239" s="1"/>
+      <c r="Q239" s="1"/>
+      <c r="R239" s="1"/>
+      <c r="S239" s="1"/>
+      <c r="T239" s="1"/>
+      <c r="U239" s="1"/>
+      <c r="V239" s="1"/>
+      <c r="W239" s="1"/>
+      <c r="X239" s="1"/>
+      <c r="Y239" s="1"/>
+      <c r="Z239" s="1"/>
+      <c r="AA239" s="1"/>
+      <c r="AB239" s="1"/>
+      <c r="AC239" s="1"/>
+      <c r="AD239" s="1"/>
+      <c r="AE239" s="1"/>
+      <c r="AF239" s="1"/>
+      <c r="AG239" s="1"/>
     </row>
     <row r="240" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
-      <c r="C240" s="5"/>
-      <c r="D240" s="5"/>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
-      <c r="I240" s="5"/>
-      <c r="J240" s="5"/>
-      <c r="K240" s="5"/>
-      <c r="L240" s="5"/>
-      <c r="M240" s="35"/>
-      <c r="N240" s="5"/>
-      <c r="O240" s="5"/>
-      <c r="P240" s="5"/>
-      <c r="Q240" s="5"/>
-      <c r="R240" s="5"/>
-      <c r="S240" s="5"/>
-      <c r="T240" s="5"/>
-      <c r="U240" s="5"/>
-      <c r="V240" s="5"/>
-      <c r="W240" s="5"/>
-      <c r="X240" s="5"/>
-      <c r="Y240" s="5"/>
-      <c r="Z240" s="5"/>
-      <c r="AA240" s="5"/>
-      <c r="AB240" s="5"/>
-      <c r="AC240" s="5"/>
-      <c r="AD240" s="5"/>
-      <c r="AE240" s="5"/>
-      <c r="AF240" s="5"/>
-      <c r="AG240" s="5"/>
+      <c r="C240" s="1"/>
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+      <c r="F240" s="1"/>
+      <c r="G240" s="1"/>
+      <c r="H240" s="1"/>
+      <c r="I240" s="1"/>
+      <c r="J240" s="1"/>
+      <c r="K240" s="1"/>
+      <c r="L240" s="1"/>
+      <c r="M240" s="11"/>
+      <c r="N240" s="1"/>
+      <c r="O240" s="1"/>
+      <c r="P240" s="1"/>
+      <c r="Q240" s="1"/>
+      <c r="R240" s="1"/>
+      <c r="S240" s="1"/>
+      <c r="T240" s="1"/>
+      <c r="U240" s="1"/>
+      <c r="V240" s="1"/>
+      <c r="W240" s="1"/>
+      <c r="X240" s="1"/>
+      <c r="Y240" s="1"/>
+      <c r="Z240" s="1"/>
+      <c r="AA240" s="1"/>
+      <c r="AB240" s="1"/>
+      <c r="AC240" s="1"/>
+      <c r="AD240" s="1"/>
+      <c r="AE240" s="1"/>
+      <c r="AF240" s="1"/>
+      <c r="AG240" s="1"/>
     </row>
     <row r="241" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1"/>
@@ -65794,538 +65817,13 @@
       <c r="AF1005" s="1"/>
       <c r="AG1005" s="1"/>
     </row>
-    <row r="1006" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1006" s="1"/>
-      <c r="B1006" s="1"/>
-      <c r="C1006" s="1"/>
-      <c r="D1006" s="1"/>
-      <c r="E1006" s="1"/>
-      <c r="F1006" s="1"/>
-      <c r="G1006" s="1"/>
-      <c r="H1006" s="1"/>
-      <c r="I1006" s="1"/>
-      <c r="J1006" s="1"/>
-      <c r="K1006" s="1"/>
-      <c r="L1006" s="1"/>
-      <c r="M1006" s="11"/>
-      <c r="N1006" s="1"/>
-      <c r="O1006" s="1"/>
-      <c r="P1006" s="1"/>
-      <c r="Q1006" s="1"/>
-      <c r="R1006" s="1"/>
-      <c r="S1006" s="1"/>
-      <c r="T1006" s="1"/>
-      <c r="U1006" s="1"/>
-      <c r="V1006" s="1"/>
-      <c r="W1006" s="1"/>
-      <c r="X1006" s="1"/>
-      <c r="Y1006" s="1"/>
-      <c r="Z1006" s="1"/>
-      <c r="AA1006" s="1"/>
-      <c r="AB1006" s="1"/>
-      <c r="AC1006" s="1"/>
-      <c r="AD1006" s="1"/>
-      <c r="AE1006" s="1"/>
-      <c r="AF1006" s="1"/>
-      <c r="AG1006" s="1"/>
-    </row>
-    <row r="1007" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1007" s="1"/>
-      <c r="B1007" s="1"/>
-      <c r="C1007" s="1"/>
-      <c r="D1007" s="1"/>
-      <c r="E1007" s="1"/>
-      <c r="F1007" s="1"/>
-      <c r="G1007" s="1"/>
-      <c r="H1007" s="1"/>
-      <c r="I1007" s="1"/>
-      <c r="J1007" s="1"/>
-      <c r="K1007" s="1"/>
-      <c r="L1007" s="1"/>
-      <c r="M1007" s="11"/>
-      <c r="N1007" s="1"/>
-      <c r="O1007" s="1"/>
-      <c r="P1007" s="1"/>
-      <c r="Q1007" s="1"/>
-      <c r="R1007" s="1"/>
-      <c r="S1007" s="1"/>
-      <c r="T1007" s="1"/>
-      <c r="U1007" s="1"/>
-      <c r="V1007" s="1"/>
-      <c r="W1007" s="1"/>
-      <c r="X1007" s="1"/>
-      <c r="Y1007" s="1"/>
-      <c r="Z1007" s="1"/>
-      <c r="AA1007" s="1"/>
-      <c r="AB1007" s="1"/>
-      <c r="AC1007" s="1"/>
-      <c r="AD1007" s="1"/>
-      <c r="AE1007" s="1"/>
-      <c r="AF1007" s="1"/>
-      <c r="AG1007" s="1"/>
-    </row>
-    <row r="1008" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1008" s="1"/>
-      <c r="B1008" s="1"/>
-      <c r="C1008" s="1"/>
-      <c r="D1008" s="1"/>
-      <c r="E1008" s="1"/>
-      <c r="F1008" s="1"/>
-      <c r="G1008" s="1"/>
-      <c r="H1008" s="1"/>
-      <c r="I1008" s="1"/>
-      <c r="J1008" s="1"/>
-      <c r="K1008" s="1"/>
-      <c r="L1008" s="1"/>
-      <c r="M1008" s="11"/>
-      <c r="N1008" s="1"/>
-      <c r="O1008" s="1"/>
-      <c r="P1008" s="1"/>
-      <c r="Q1008" s="1"/>
-      <c r="R1008" s="1"/>
-      <c r="S1008" s="1"/>
-      <c r="T1008" s="1"/>
-      <c r="U1008" s="1"/>
-      <c r="V1008" s="1"/>
-      <c r="W1008" s="1"/>
-      <c r="X1008" s="1"/>
-      <c r="Y1008" s="1"/>
-      <c r="Z1008" s="1"/>
-      <c r="AA1008" s="1"/>
-      <c r="AB1008" s="1"/>
-      <c r="AC1008" s="1"/>
-      <c r="AD1008" s="1"/>
-      <c r="AE1008" s="1"/>
-      <c r="AF1008" s="1"/>
-      <c r="AG1008" s="1"/>
-    </row>
-    <row r="1009" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1009" s="1"/>
-      <c r="B1009" s="1"/>
-      <c r="C1009" s="1"/>
-      <c r="D1009" s="1"/>
-      <c r="E1009" s="1"/>
-      <c r="F1009" s="1"/>
-      <c r="G1009" s="1"/>
-      <c r="H1009" s="1"/>
-      <c r="I1009" s="1"/>
-      <c r="J1009" s="1"/>
-      <c r="K1009" s="1"/>
-      <c r="L1009" s="1"/>
-      <c r="M1009" s="11"/>
-      <c r="N1009" s="1"/>
-      <c r="O1009" s="1"/>
-      <c r="P1009" s="1"/>
-      <c r="Q1009" s="1"/>
-      <c r="R1009" s="1"/>
-      <c r="S1009" s="1"/>
-      <c r="T1009" s="1"/>
-      <c r="U1009" s="1"/>
-      <c r="V1009" s="1"/>
-      <c r="W1009" s="1"/>
-      <c r="X1009" s="1"/>
-      <c r="Y1009" s="1"/>
-      <c r="Z1009" s="1"/>
-      <c r="AA1009" s="1"/>
-      <c r="AB1009" s="1"/>
-      <c r="AC1009" s="1"/>
-      <c r="AD1009" s="1"/>
-      <c r="AE1009" s="1"/>
-      <c r="AF1009" s="1"/>
-      <c r="AG1009" s="1"/>
-    </row>
-    <row r="1010" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1010" s="1"/>
-      <c r="B1010" s="1"/>
-      <c r="C1010" s="1"/>
-      <c r="D1010" s="1"/>
-      <c r="E1010" s="1"/>
-      <c r="F1010" s="1"/>
-      <c r="G1010" s="1"/>
-      <c r="H1010" s="1"/>
-      <c r="I1010" s="1"/>
-      <c r="J1010" s="1"/>
-      <c r="K1010" s="1"/>
-      <c r="L1010" s="1"/>
-      <c r="M1010" s="11"/>
-      <c r="N1010" s="1"/>
-      <c r="O1010" s="1"/>
-      <c r="P1010" s="1"/>
-      <c r="Q1010" s="1"/>
-      <c r="R1010" s="1"/>
-      <c r="S1010" s="1"/>
-      <c r="T1010" s="1"/>
-      <c r="U1010" s="1"/>
-      <c r="V1010" s="1"/>
-      <c r="W1010" s="1"/>
-      <c r="X1010" s="1"/>
-      <c r="Y1010" s="1"/>
-      <c r="Z1010" s="1"/>
-      <c r="AA1010" s="1"/>
-      <c r="AB1010" s="1"/>
-      <c r="AC1010" s="1"/>
-      <c r="AD1010" s="1"/>
-      <c r="AE1010" s="1"/>
-      <c r="AF1010" s="1"/>
-      <c r="AG1010" s="1"/>
-    </row>
-    <row r="1011" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1011" s="1"/>
-      <c r="B1011" s="1"/>
-      <c r="C1011" s="1"/>
-      <c r="D1011" s="1"/>
-      <c r="E1011" s="1"/>
-      <c r="F1011" s="1"/>
-      <c r="G1011" s="1"/>
-      <c r="H1011" s="1"/>
-      <c r="I1011" s="1"/>
-      <c r="J1011" s="1"/>
-      <c r="K1011" s="1"/>
-      <c r="L1011" s="1"/>
-      <c r="M1011" s="11"/>
-      <c r="N1011" s="1"/>
-      <c r="O1011" s="1"/>
-      <c r="P1011" s="1"/>
-      <c r="Q1011" s="1"/>
-      <c r="R1011" s="1"/>
-      <c r="S1011" s="1"/>
-      <c r="T1011" s="1"/>
-      <c r="U1011" s="1"/>
-      <c r="V1011" s="1"/>
-      <c r="W1011" s="1"/>
-      <c r="X1011" s="1"/>
-      <c r="Y1011" s="1"/>
-      <c r="Z1011" s="1"/>
-      <c r="AA1011" s="1"/>
-      <c r="AB1011" s="1"/>
-      <c r="AC1011" s="1"/>
-      <c r="AD1011" s="1"/>
-      <c r="AE1011" s="1"/>
-      <c r="AF1011" s="1"/>
-      <c r="AG1011" s="1"/>
-    </row>
-    <row r="1012" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1012" s="1"/>
-      <c r="B1012" s="1"/>
-      <c r="C1012" s="1"/>
-      <c r="D1012" s="1"/>
-      <c r="E1012" s="1"/>
-      <c r="F1012" s="1"/>
-      <c r="G1012" s="1"/>
-      <c r="H1012" s="1"/>
-      <c r="I1012" s="1"/>
-      <c r="J1012" s="1"/>
-      <c r="K1012" s="1"/>
-      <c r="L1012" s="1"/>
-      <c r="M1012" s="11"/>
-      <c r="N1012" s="1"/>
-      <c r="O1012" s="1"/>
-      <c r="P1012" s="1"/>
-      <c r="Q1012" s="1"/>
-      <c r="R1012" s="1"/>
-      <c r="S1012" s="1"/>
-      <c r="T1012" s="1"/>
-      <c r="U1012" s="1"/>
-      <c r="V1012" s="1"/>
-      <c r="W1012" s="1"/>
-      <c r="X1012" s="1"/>
-      <c r="Y1012" s="1"/>
-      <c r="Z1012" s="1"/>
-      <c r="AA1012" s="1"/>
-      <c r="AB1012" s="1"/>
-      <c r="AC1012" s="1"/>
-      <c r="AD1012" s="1"/>
-      <c r="AE1012" s="1"/>
-      <c r="AF1012" s="1"/>
-      <c r="AG1012" s="1"/>
-    </row>
-    <row r="1013" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1013" s="1"/>
-      <c r="B1013" s="1"/>
-      <c r="C1013" s="1"/>
-      <c r="D1013" s="1"/>
-      <c r="E1013" s="1"/>
-      <c r="F1013" s="1"/>
-      <c r="G1013" s="1"/>
-      <c r="H1013" s="1"/>
-      <c r="I1013" s="1"/>
-      <c r="J1013" s="1"/>
-      <c r="K1013" s="1"/>
-      <c r="L1013" s="1"/>
-      <c r="M1013" s="11"/>
-      <c r="N1013" s="1"/>
-      <c r="O1013" s="1"/>
-      <c r="P1013" s="1"/>
-      <c r="Q1013" s="1"/>
-      <c r="R1013" s="1"/>
-      <c r="S1013" s="1"/>
-      <c r="T1013" s="1"/>
-      <c r="U1013" s="1"/>
-      <c r="V1013" s="1"/>
-      <c r="W1013" s="1"/>
-      <c r="X1013" s="1"/>
-      <c r="Y1013" s="1"/>
-      <c r="Z1013" s="1"/>
-      <c r="AA1013" s="1"/>
-      <c r="AB1013" s="1"/>
-      <c r="AC1013" s="1"/>
-      <c r="AD1013" s="1"/>
-      <c r="AE1013" s="1"/>
-      <c r="AF1013" s="1"/>
-      <c r="AG1013" s="1"/>
-    </row>
-    <row r="1014" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1014" s="1"/>
-      <c r="B1014" s="1"/>
-      <c r="C1014" s="1"/>
-      <c r="D1014" s="1"/>
-      <c r="E1014" s="1"/>
-      <c r="F1014" s="1"/>
-      <c r="G1014" s="1"/>
-      <c r="H1014" s="1"/>
-      <c r="I1014" s="1"/>
-      <c r="J1014" s="1"/>
-      <c r="K1014" s="1"/>
-      <c r="L1014" s="1"/>
-      <c r="M1014" s="11"/>
-      <c r="N1014" s="1"/>
-      <c r="O1014" s="1"/>
-      <c r="P1014" s="1"/>
-      <c r="Q1014" s="1"/>
-      <c r="R1014" s="1"/>
-      <c r="S1014" s="1"/>
-      <c r="T1014" s="1"/>
-      <c r="U1014" s="1"/>
-      <c r="V1014" s="1"/>
-      <c r="W1014" s="1"/>
-      <c r="X1014" s="1"/>
-      <c r="Y1014" s="1"/>
-      <c r="Z1014" s="1"/>
-      <c r="AA1014" s="1"/>
-      <c r="AB1014" s="1"/>
-      <c r="AC1014" s="1"/>
-      <c r="AD1014" s="1"/>
-      <c r="AE1014" s="1"/>
-      <c r="AF1014" s="1"/>
-      <c r="AG1014" s="1"/>
-    </row>
-    <row r="1015" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1015" s="1"/>
-      <c r="B1015" s="1"/>
-      <c r="C1015" s="1"/>
-      <c r="D1015" s="1"/>
-      <c r="E1015" s="1"/>
-      <c r="F1015" s="1"/>
-      <c r="G1015" s="1"/>
-      <c r="H1015" s="1"/>
-      <c r="I1015" s="1"/>
-      <c r="J1015" s="1"/>
-      <c r="K1015" s="1"/>
-      <c r="L1015" s="1"/>
-      <c r="M1015" s="11"/>
-      <c r="N1015" s="1"/>
-      <c r="O1015" s="1"/>
-      <c r="P1015" s="1"/>
-      <c r="Q1015" s="1"/>
-      <c r="R1015" s="1"/>
-      <c r="S1015" s="1"/>
-      <c r="T1015" s="1"/>
-      <c r="U1015" s="1"/>
-      <c r="V1015" s="1"/>
-      <c r="W1015" s="1"/>
-      <c r="X1015" s="1"/>
-      <c r="Y1015" s="1"/>
-      <c r="Z1015" s="1"/>
-      <c r="AA1015" s="1"/>
-      <c r="AB1015" s="1"/>
-      <c r="AC1015" s="1"/>
-      <c r="AD1015" s="1"/>
-      <c r="AE1015" s="1"/>
-      <c r="AF1015" s="1"/>
-      <c r="AG1015" s="1"/>
-    </row>
-    <row r="1016" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1016" s="1"/>
-      <c r="B1016" s="1"/>
-      <c r="C1016" s="1"/>
-      <c r="D1016" s="1"/>
-      <c r="E1016" s="1"/>
-      <c r="F1016" s="1"/>
-      <c r="G1016" s="1"/>
-      <c r="H1016" s="1"/>
-      <c r="I1016" s="1"/>
-      <c r="J1016" s="1"/>
-      <c r="K1016" s="1"/>
-      <c r="L1016" s="1"/>
-      <c r="M1016" s="11"/>
-      <c r="N1016" s="1"/>
-      <c r="O1016" s="1"/>
-      <c r="P1016" s="1"/>
-      <c r="Q1016" s="1"/>
-      <c r="R1016" s="1"/>
-      <c r="S1016" s="1"/>
-      <c r="T1016" s="1"/>
-      <c r="U1016" s="1"/>
-      <c r="V1016" s="1"/>
-      <c r="W1016" s="1"/>
-      <c r="X1016" s="1"/>
-      <c r="Y1016" s="1"/>
-      <c r="Z1016" s="1"/>
-      <c r="AA1016" s="1"/>
-      <c r="AB1016" s="1"/>
-      <c r="AC1016" s="1"/>
-      <c r="AD1016" s="1"/>
-      <c r="AE1016" s="1"/>
-      <c r="AF1016" s="1"/>
-      <c r="AG1016" s="1"/>
-    </row>
-    <row r="1017" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1017" s="1"/>
-      <c r="B1017" s="1"/>
-      <c r="C1017" s="1"/>
-      <c r="D1017" s="1"/>
-      <c r="E1017" s="1"/>
-      <c r="F1017" s="1"/>
-      <c r="G1017" s="1"/>
-      <c r="H1017" s="1"/>
-      <c r="I1017" s="1"/>
-      <c r="J1017" s="1"/>
-      <c r="K1017" s="1"/>
-      <c r="L1017" s="1"/>
-      <c r="M1017" s="11"/>
-      <c r="N1017" s="1"/>
-      <c r="O1017" s="1"/>
-      <c r="P1017" s="1"/>
-      <c r="Q1017" s="1"/>
-      <c r="R1017" s="1"/>
-      <c r="S1017" s="1"/>
-      <c r="T1017" s="1"/>
-      <c r="U1017" s="1"/>
-      <c r="V1017" s="1"/>
-      <c r="W1017" s="1"/>
-      <c r="X1017" s="1"/>
-      <c r="Y1017" s="1"/>
-      <c r="Z1017" s="1"/>
-      <c r="AA1017" s="1"/>
-      <c r="AB1017" s="1"/>
-      <c r="AC1017" s="1"/>
-      <c r="AD1017" s="1"/>
-      <c r="AE1017" s="1"/>
-      <c r="AF1017" s="1"/>
-      <c r="AG1017" s="1"/>
-    </row>
-    <row r="1018" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1018" s="1"/>
-      <c r="B1018" s="1"/>
-      <c r="C1018" s="1"/>
-      <c r="D1018" s="1"/>
-      <c r="E1018" s="1"/>
-      <c r="F1018" s="1"/>
-      <c r="G1018" s="1"/>
-      <c r="H1018" s="1"/>
-      <c r="I1018" s="1"/>
-      <c r="J1018" s="1"/>
-      <c r="K1018" s="1"/>
-      <c r="L1018" s="1"/>
-      <c r="M1018" s="11"/>
-      <c r="N1018" s="1"/>
-      <c r="O1018" s="1"/>
-      <c r="P1018" s="1"/>
-      <c r="Q1018" s="1"/>
-      <c r="R1018" s="1"/>
-      <c r="S1018" s="1"/>
-      <c r="T1018" s="1"/>
-      <c r="U1018" s="1"/>
-      <c r="V1018" s="1"/>
-      <c r="W1018" s="1"/>
-      <c r="X1018" s="1"/>
-      <c r="Y1018" s="1"/>
-      <c r="Z1018" s="1"/>
-      <c r="AA1018" s="1"/>
-      <c r="AB1018" s="1"/>
-      <c r="AC1018" s="1"/>
-      <c r="AD1018" s="1"/>
-      <c r="AE1018" s="1"/>
-      <c r="AF1018" s="1"/>
-      <c r="AG1018" s="1"/>
-    </row>
-    <row r="1019" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1019" s="1"/>
-      <c r="B1019" s="1"/>
-      <c r="C1019" s="1"/>
-      <c r="D1019" s="1"/>
-      <c r="E1019" s="1"/>
-      <c r="F1019" s="1"/>
-      <c r="G1019" s="1"/>
-      <c r="H1019" s="1"/>
-      <c r="I1019" s="1"/>
-      <c r="J1019" s="1"/>
-      <c r="K1019" s="1"/>
-      <c r="L1019" s="1"/>
-      <c r="M1019" s="11"/>
-      <c r="N1019" s="1"/>
-      <c r="O1019" s="1"/>
-      <c r="P1019" s="1"/>
-      <c r="Q1019" s="1"/>
-      <c r="R1019" s="1"/>
-      <c r="S1019" s="1"/>
-      <c r="T1019" s="1"/>
-      <c r="U1019" s="1"/>
-      <c r="V1019" s="1"/>
-      <c r="W1019" s="1"/>
-      <c r="X1019" s="1"/>
-      <c r="Y1019" s="1"/>
-      <c r="Z1019" s="1"/>
-      <c r="AA1019" s="1"/>
-      <c r="AB1019" s="1"/>
-      <c r="AC1019" s="1"/>
-      <c r="AD1019" s="1"/>
-      <c r="AE1019" s="1"/>
-      <c r="AF1019" s="1"/>
-      <c r="AG1019" s="1"/>
-    </row>
-    <row r="1020" spans="1:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1020" s="1"/>
-      <c r="B1020" s="1"/>
-      <c r="C1020" s="1"/>
-      <c r="D1020" s="1"/>
-      <c r="E1020" s="1"/>
-      <c r="F1020" s="1"/>
-      <c r="G1020" s="1"/>
-      <c r="H1020" s="1"/>
-      <c r="I1020" s="1"/>
-      <c r="J1020" s="1"/>
-      <c r="K1020" s="1"/>
-      <c r="L1020" s="1"/>
-      <c r="M1020" s="11"/>
-      <c r="N1020" s="1"/>
-      <c r="O1020" s="1"/>
-      <c r="P1020" s="1"/>
-      <c r="Q1020" s="1"/>
-      <c r="R1020" s="1"/>
-      <c r="S1020" s="1"/>
-      <c r="T1020" s="1"/>
-      <c r="U1020" s="1"/>
-      <c r="V1020" s="1"/>
-      <c r="W1020" s="1"/>
-      <c r="X1020" s="1"/>
-      <c r="Y1020" s="1"/>
-      <c r="Z1020" s="1"/>
-      <c r="AA1020" s="1"/>
-      <c r="AB1020" s="1"/>
-      <c r="AC1020" s="1"/>
-      <c r="AD1020" s="1"/>
-      <c r="AE1020" s="1"/>
-      <c r="AF1020" s="1"/>
-      <c r="AG1020" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
-  <conditionalFormatting sqref="J6:J12 M6:M14 J14 J17:J19 J21:J69 J71:J124">
+  <conditionalFormatting sqref="J6:J12 M6:M14 J14 J17:J19 J21:J54 J56:J109">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Vencido">
       <formula>NOT(ISERROR(SEARCH(("Vencido"),(J6))))</formula>
     </cfRule>
@@ -66343,7 +65841,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J6:J124" xr:uid="{A5F1F173-A07E-495E-9ACC-89F4C64870D5}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J6:J109" xr:uid="{A5F1F173-A07E-495E-9ACC-89F4C64870D5}">
       <formula1>$M$6:$M$12</formula1>
     </dataValidation>
   </dataValidations>
@@ -66640,16 +66138,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9ABFC9E0-F642-4B88-9454-C58CC9F01C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a70274b8-0ef1-4c01-a3b8-5d734620ced0"/>
+    <ds:schemaRef ds:uri="ba47b841-f276-4e08-99db-763c570adf92"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ba47b841-f276-4e08-99db-763c570adf92"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>